--- a/Data/EC/NIT-9004399978.xlsx
+++ b/Data/EC/NIT-9004399978.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC2F308-772E-4182-9F37-243EDFF690FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{645B2CDA-743F-4265-9B71-DEAD68744182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81C076D3-CF44-4491-B9F5-E1CBA71D21FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49B69400-C2B4-4370-95C3-F07C7DF802E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,151 +65,157 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1044931019</t>
+  </si>
+  <si>
+    <t>GUSTAVO ENRIQUE PUELLO PATERNINA</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>92260129</t>
+  </si>
+  <si>
+    <t>IVAN FRNACISCO FLOREZ ROSARIO</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>1047373910</t>
+  </si>
+  <si>
+    <t>KATY LISBETH NAJERA GARCIA</t>
+  </si>
+  <si>
     <t>1007803311</t>
   </si>
   <si>
     <t>JOSE JUAN TAPIA CAUSADO</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1044931019</t>
-  </si>
-  <si>
-    <t>GUSTAVO ENRIQUE PUELLO PATERNINA</t>
-  </si>
-  <si>
-    <t>1047373910</t>
-  </si>
-  <si>
-    <t>KATY LISBETH NAJERA GARCIA</t>
-  </si>
-  <si>
-    <t>92260129</t>
-  </si>
-  <si>
-    <t>IVAN FRNACISCO FLOREZ ROSARIO</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
+    <t>9004399978</t>
+  </si>
+  <si>
+    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -623,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0796B634-C06C-88EC-7F6A-204D3F43C937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3D10D4-6D2F-3A45-1794-97ACEBD56504}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABD9F5B-4140-41ED-8BC1-639C4C08117F}">
-  <dimension ref="B2:J183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064CF844-EF22-4CB2-AFEB-71B3C0841B0F}">
+  <dimension ref="B2:J184"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -999,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1044,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1076,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4927401</v>
+        <v>4968801</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1092,17 +1098,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1129,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>15625</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1166,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1189,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>737717</v>
@@ -1212,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>737717</v>
@@ -1241,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1258,16 +1264,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1281,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1304,16 +1310,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1327,16 +1333,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1356,10 +1362,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>737717</v>
@@ -1373,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>737717</v>
@@ -1396,16 +1402,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>737717</v>
@@ -1419,16 +1425,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>737717</v>
@@ -1442,16 +1448,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>737717</v>
@@ -1471,10 +1477,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>737717</v>
@@ -1488,16 +1494,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>737717</v>
@@ -1517,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1534,16 +1540,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>737717</v>
@@ -1557,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>737717</v>
@@ -1580,16 +1586,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>737717</v>
@@ -1603,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>737717</v>
@@ -1626,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>737717</v>
@@ -1649,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1678,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>737717</v>
@@ -1695,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>737717</v>
@@ -1718,13 +1724,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1741,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
@@ -1770,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1787,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>29509</v>
@@ -1810,13 +1816,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
@@ -1839,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
@@ -1856,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
@@ -1879,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
@@ -1902,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
@@ -1931,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
@@ -1948,13 +1954,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
@@ -1977,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -1994,13 +2000,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -2017,13 +2023,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2040,16 +2046,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G55" s="18">
         <v>737717</v>
@@ -2063,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>737717</v>
@@ -2086,16 +2092,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>737717</v>
@@ -2109,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>737717</v>
@@ -2132,16 +2138,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>737717</v>
@@ -2155,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>737717</v>
@@ -2178,16 +2184,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>737717</v>
@@ -2201,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>737717</v>
@@ -2224,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>737717</v>
@@ -2247,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>737717</v>
@@ -2270,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>737717</v>
@@ -2293,16 +2299,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>737717</v>
@@ -2316,16 +2322,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>737717</v>
@@ -2339,16 +2345,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>737717</v>
@@ -2362,16 +2368,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>737717</v>
@@ -2385,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>737717</v>
@@ -2408,16 +2414,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>737717</v>
@@ -2431,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2454,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2477,13 +2483,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2500,13 +2506,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2523,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2546,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2569,10 +2575,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>32</v>
@@ -2592,13 +2598,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2615,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2638,13 +2644,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2661,16 +2667,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
         <v>737717</v>
@@ -2684,16 +2690,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G83" s="18">
         <v>737717</v>
@@ -2707,16 +2713,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G84" s="18">
         <v>737717</v>
@@ -2730,16 +2736,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>737717</v>
@@ -2753,16 +2759,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G86" s="18">
         <v>737717</v>
@@ -2776,16 +2782,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="18">
         <v>737717</v>
@@ -2799,16 +2805,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G88" s="18">
         <v>737717</v>
@@ -2822,16 +2828,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
         <v>737717</v>
@@ -2845,16 +2851,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G90" s="18">
         <v>737717</v>
@@ -2868,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
         <v>737717</v>
@@ -2891,16 +2897,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G92" s="18">
         <v>737717</v>
@@ -2914,16 +2920,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G93" s="18">
         <v>737717</v>
@@ -2937,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G94" s="18">
         <v>737717</v>
@@ -2960,16 +2966,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G95" s="18">
         <v>737717</v>
@@ -2983,16 +2989,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G96" s="18">
         <v>737717</v>
@@ -3006,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3029,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3052,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3075,13 +3081,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3098,13 +3104,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3121,13 +3127,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3144,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3167,13 +3173,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3190,13 +3196,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3213,13 +3219,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3236,13 +3242,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3259,13 +3265,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3282,13 +3288,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3305,13 +3311,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3328,13 +3334,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3351,13 +3357,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3374,13 +3380,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3397,13 +3403,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
@@ -3420,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3443,13 +3449,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3466,13 +3472,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3489,13 +3495,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3512,13 +3518,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3535,13 +3541,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3558,13 +3564,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3581,13 +3587,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3604,16 +3610,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G123" s="18">
         <v>737717</v>
@@ -3627,16 +3633,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G124" s="18">
         <v>737717</v>
@@ -3650,16 +3656,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G125" s="18">
         <v>737717</v>
@@ -3673,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G126" s="18">
         <v>737717</v>
@@ -3696,16 +3702,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G127" s="18">
         <v>737717</v>
@@ -3719,16 +3725,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G128" s="18">
         <v>737717</v>
@@ -3742,16 +3748,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G129" s="18">
         <v>737717</v>
@@ -3765,16 +3771,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G130" s="18">
         <v>737717</v>
@@ -3788,16 +3794,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G131" s="18">
         <v>737717</v>
@@ -3811,16 +3817,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G132" s="18">
         <v>737717</v>
@@ -3834,16 +3840,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G133" s="18">
         <v>737717</v>
@@ -3857,16 +3863,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G134" s="18">
         <v>737717</v>
@@ -3880,16 +3886,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G135" s="18">
         <v>737717</v>
@@ -3903,16 +3909,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G136" s="18">
         <v>737717</v>
@@ -3926,16 +3932,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>23958</v>
       </c>
       <c r="G137" s="18">
         <v>737717</v>
@@ -3949,13 +3955,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -3972,13 +3978,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -3995,13 +4001,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4018,13 +4024,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4041,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4064,13 +4070,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D143" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4087,13 +4093,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4110,13 +4116,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4133,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4156,13 +4162,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4179,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4202,13 +4208,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4225,13 +4231,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
@@ -4248,13 +4254,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4271,13 +4277,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4294,13 +4300,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4317,13 +4323,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4340,13 +4346,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4363,13 +4369,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4386,13 +4392,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4409,13 +4415,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4432,13 +4438,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4455,13 +4461,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4478,13 +4484,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4501,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4524,13 +4530,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4547,16 +4553,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F164" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G164" s="18">
         <v>737717</v>
@@ -4570,16 +4576,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G165" s="18">
         <v>737717</v>
@@ -4593,16 +4599,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G166" s="18">
         <v>737717</v>
@@ -4616,16 +4622,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G167" s="18">
         <v>737717</v>
@@ -4639,16 +4645,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G168" s="18">
         <v>737717</v>
@@ -4662,16 +4668,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F169" s="18">
-        <v>15625</v>
+        <v>29509</v>
       </c>
       <c r="G169" s="18">
         <v>737717</v>
@@ -4685,16 +4691,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G170" s="18">
         <v>737717</v>
@@ -4708,16 +4714,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G171" s="18">
         <v>737717</v>
@@ -4731,16 +4737,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F172" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G172" s="18">
         <v>737717</v>
@@ -4754,16 +4760,16 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F173" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G173" s="18">
         <v>737717</v>
@@ -4777,16 +4783,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G174" s="18">
         <v>737717</v>
@@ -4800,16 +4806,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F175" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G175" s="18">
         <v>737717</v>
@@ -4823,16 +4829,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F176" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G176" s="18">
         <v>737717</v>
@@ -4842,56 +4848,77 @@
       <c r="J176" s="20"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" s="22" t="s">
+      <c r="B177" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F177" s="24">
-        <v>23958</v>
-      </c>
-      <c r="G177" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-      <c r="J177" s="26"/>
-    </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B182" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C182" s="32"/>
-      <c r="H182" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="E177" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F177" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G177" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="20"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B178" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" s="23"/>
+      <c r="E178" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F178" s="24">
+        <v>41400</v>
+      </c>
+      <c r="G178" s="24">
+        <v>0</v>
+      </c>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="26"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C183" s="32"/>
       <c r="H183" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B184" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C184" s="32"/>
+      <c r="H184" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B184:C184"/>
     <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="H184:J184"/>
     <mergeCell ref="H183:J183"/>
-    <mergeCell ref="H182:J182"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004399978.xlsx
+++ b/Data/EC/NIT-9004399978.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{645B2CDA-743F-4265-9B71-DEAD68744182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{444D785B-DF27-48DC-A2BE-7FE17CCCB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49B69400-C2B4-4370-95C3-F07C7DF802E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ADB200F6-1EB9-4D47-9391-159B9A782A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,151 +71,145 @@
     <t>GUSTAVO ENRIQUE PUELLO PATERNINA</t>
   </si>
   <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>92260129</t>
+  </si>
+  <si>
+    <t>IVAN FRNACISCO FLOREZ ROSARIO</t>
+  </si>
+  <si>
+    <t>1047373910</t>
+  </si>
+  <si>
+    <t>KATY LISBETH NAJERA GARCIA</t>
+  </si>
+  <si>
+    <t>1007803311</t>
+  </si>
+  <si>
+    <t>JOSE JUAN TAPIA CAUSADO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>92260129</t>
-  </si>
-  <si>
-    <t>IVAN FRNACISCO FLOREZ ROSARIO</t>
+    <t>2010</t>
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1047373910</t>
-  </si>
-  <si>
-    <t>KATY LISBETH NAJERA GARCIA</t>
-  </si>
-  <si>
-    <t>1007803311</t>
-  </si>
-  <si>
-    <t>JOSE JUAN TAPIA CAUSADO</t>
-  </si>
-  <si>
-    <t>9004399978</t>
-  </si>
-  <si>
-    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -314,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -327,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -529,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3D10D4-6D2F-3A45-1794-97ACEBD56504}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6699C3-7145-392A-0A06-66B9EF79BF88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064CF844-EF22-4CB2-AFEB-71B3C0841B0F}">
-  <dimension ref="B2:J184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD83A9F7-542A-4699-B5E5-868866885F27}">
+  <dimension ref="B2:J183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1005,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4968801</v>
+        <v>4927401</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1135,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1158,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>15625</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1172,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1195,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1247,13 +1241,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,19 +1281,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,19 +1304,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1342,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,19 +1350,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,19 +1373,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1402,19 +1396,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1431,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1448,19 +1442,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1471,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1494,19 +1488,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1523,13 +1517,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1540,19 +1534,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1563,19 +1557,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1586,19 +1580,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1615,13 +1609,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1632,19 +1626,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1655,19 +1649,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1678,19 +1672,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1707,13 +1701,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1724,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1747,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,19 +1764,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1799,13 +1793,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1816,19 +1810,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1839,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
         <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1891,13 +1885,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1908,19 +1902,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1931,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1954,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1983,13 +1977,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2000,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2023,19 +2017,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2046,19 +2040,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2069,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2092,19 +2086,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2115,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2138,19 +2132,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2161,19 +2155,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2184,19 +2178,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2207,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2230,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2253,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2276,19 +2270,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2299,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2322,19 +2316,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2345,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2368,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G69" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2391,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2414,19 +2408,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G71" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2437,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2460,19 +2454,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2483,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2506,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2529,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2552,19 +2546,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2575,10 +2569,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>32</v>
@@ -2587,7 +2581,7 @@
         <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2598,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2621,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2644,19 +2638,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2667,19 +2661,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2690,19 +2684,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2713,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2736,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2759,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F86" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2782,19 +2776,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F87" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2805,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F88" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2828,19 +2822,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2851,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2874,19 +2868,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2897,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2920,19 +2914,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F93" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2943,19 +2937,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2966,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F95" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2989,19 +2983,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3012,19 +3006,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3035,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3058,19 +3052,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3081,19 +3075,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3104,19 +3098,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3127,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3150,19 +3144,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3173,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3196,19 +3190,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3219,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3242,19 +3236,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3265,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3288,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3311,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3334,19 +3328,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3357,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3380,19 +3374,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3403,19 +3397,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F114" s="18">
         <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3426,19 +3420,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3449,19 +3443,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3472,19 +3466,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3495,19 +3489,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3518,19 +3512,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3541,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
       </c>
       <c r="G120" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3564,19 +3558,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3587,19 +3581,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3610,19 +3604,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3633,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3656,19 +3650,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3679,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3702,19 +3696,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F127" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3725,19 +3719,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F128" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3748,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3771,19 +3765,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3794,19 +3788,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F131" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3817,19 +3811,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F132" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3840,19 +3834,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F133" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G133" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3863,19 +3857,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3886,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F135" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3909,19 +3903,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F136" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G136" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3932,19 +3926,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F137" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3955,19 +3949,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -3978,19 +3972,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4001,19 +3995,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4024,19 +4018,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4047,19 +4041,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4070,19 +4064,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4093,19 +4087,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4116,19 +4110,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4139,19 +4133,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4162,19 +4156,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4185,19 +4179,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4208,19 +4202,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
       </c>
       <c r="G149" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4231,19 +4225,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F150" s="18">
         <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4254,19 +4248,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
       </c>
       <c r="G151" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4277,19 +4271,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
       </c>
       <c r="G152" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4300,19 +4294,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4323,19 +4317,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
       </c>
       <c r="G154" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4346,19 +4340,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4369,19 +4363,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4392,19 +4386,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
       </c>
       <c r="G157" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4415,19 +4409,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4438,19 +4432,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
       </c>
       <c r="G159" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4461,19 +4455,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4484,19 +4478,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
       </c>
       <c r="G161" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4507,19 +4501,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4530,19 +4524,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
       </c>
       <c r="G163" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4553,19 +4547,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F164" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4576,19 +4570,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F165" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4599,19 +4593,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F166" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4622,19 +4616,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F167" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4645,19 +4639,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F168" s="18">
-        <v>29509</v>
+        <v>15625</v>
       </c>
       <c r="G168" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4668,19 +4662,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F169" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4691,19 +4685,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F170" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4714,19 +4708,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F171" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4737,19 +4731,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D172" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F172" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4760,19 +4754,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D173" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F173" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4783,19 +4777,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E174" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F174" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4806,19 +4800,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D175" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E175" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F175" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G175" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4829,96 +4823,75 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D176" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E176" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F176" s="18">
-        <v>29509</v>
+        <v>23958</v>
       </c>
       <c r="G176" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="20"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D177" s="17" t="s">
+      <c r="B177" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E177" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F177" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G177" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
-    </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B178" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F178" s="24">
-        <v>41400</v>
-      </c>
-      <c r="G178" s="24">
-        <v>0</v>
-      </c>
-      <c r="H178" s="25"/>
-      <c r="I178" s="25"/>
-      <c r="J178" s="26"/>
+      <c r="F177" s="24">
+        <v>23958</v>
+      </c>
+      <c r="G177" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="26"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B182" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C182" s="32"/>
+      <c r="H182" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C183" s="32"/>
       <c r="H183" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C184" s="32"/>
-      <c r="H184" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B184:C184"/>
     <mergeCell ref="B183:C183"/>
-    <mergeCell ref="H184:J184"/>
+    <mergeCell ref="B182:C182"/>
     <mergeCell ref="H183:J183"/>
+    <mergeCell ref="H182:J182"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
